--- a/src/main/resources/xlsx/pcs/wy-1-1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-1-1.xlsx
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>党委委员候选人初步人选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>书记签名：</t>
     </r>
@@ -178,8 +174,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明：1.请在以下名单中，推荐党委委员候选人初步人选30名。
-   2.对党委委员候选人初步人选赞成的，在“推荐意见”栏划“√”，不赞成的划“×”，弃权的什么也不划。如另选他人，填入“另选他人姓名”栏内。</t>
+    <t>type候选人初步人选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：1.请在以下名单中，推荐type候选人初步人选30名。
+   2.对type候选人初步人选赞成的，在“推荐意见”栏划“√”，不赞成的划“×”，弃权的什么也不划。如另选他人，填入“另选他人姓名”栏内。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +771,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -789,7 +789,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -807,7 +807,7 @@
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -914,7 +914,7 @@
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>

--- a/src/main/resources/xlsx/pcs/wy-1-1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-1-1.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>民族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在单位及职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -180,6 +176,10 @@
   <si>
     <t>说明：1.请在以下名单中，推荐type候选人初步人选30名。
    2.对type候选人初步人选赞成的，在“推荐意见”栏划“√”，不赞成的划“×”，弃权的什么也不划。如另选他人，填入“另选他人姓名”栏内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +771,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:M8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -789,7 +789,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -807,7 +807,7 @@
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -824,7 +824,7 @@
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -856,10 +856,10 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
       <c r="L4" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -874,25 +874,25 @@
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="J5" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="24"/>
@@ -914,7 +914,7 @@
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -931,7 +931,7 @@
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
